--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -19,13 +19,13 @@
     <x:t>Merged Row(1) of Range (B2:D3)</x:t>
   </x:si>
   <x:si>
-    <x:t>Unmerged</x:t>
+    <x:t>Merged Column(1) of Range (F2:G8)</x:t>
   </x:si>
   <x:si>
     <x:t>Merged Range (B4:D6)</x:t>
   </x:si>
   <x:si>
-    <x:t>Merged Column(1) of Range (F2:G8)</x:t>
+    <x:t>Unmerged</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -416,7 +416,7 @@
     <x:col min="1" max="16384" width="9.850625" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:10">
       <x:c r="A1" s="3" t="s"/>
       <x:c r="B1" s="3" t="s"/>
       <x:c r="C1" s="3" t="s"/>
@@ -425,8 +425,9 @@
       <x:c r="F1" s="3" t="s"/>
       <x:c r="G1" s="3" t="s"/>
       <x:c r="H1" s="3" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:8">
+      <x:c r="I1" s="3" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:10">
       <x:c r="A2" s="3" t="s"/>
       <x:c r="B2" s="3" t="s">
         <x:v>0</x:v>
@@ -435,12 +436,13 @@
       <x:c r="D2" s="3" t="s"/>
       <x:c r="E2" s="3" t="s"/>
       <x:c r="F2" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G2" s="3" t="s"/>
       <x:c r="H2" s="3" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:8">
+      <x:c r="I2" s="3" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
       <x:c r="A3" s="3" t="s"/>
       <x:c r="B3" s="3" t="s"/>
       <x:c r="C3" s="3" t="s"/>
@@ -449,8 +451,9 @@
       <x:c r="F3" s="3" t="s"/>
       <x:c r="G3" s="3" t="s"/>
       <x:c r="H3" s="3" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:8">
+      <x:c r="I3" s="3" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:10">
       <x:c r="A4" s="3" t="s"/>
       <x:c r="B4" s="2" t="s">
         <x:v>2</x:v>
@@ -461,24 +464,27 @@
       <x:c r="F4" s="3" t="s"/>
       <x:c r="G4" s="3" t="s"/>
       <x:c r="H4" s="3" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:8">
+      <x:c r="I4" s="3" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:10">
       <x:c r="A5" s="3" t="s"/>
       <x:c r="B5" s="3" t="s"/>
       <x:c r="C5" s="3" t="s"/>
       <x:c r="D5" s="3" t="s"/>
       <x:c r="E5" s="3" t="s"/>
       <x:c r="F5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:8">
+      <x:c r="G5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s"/>
       <x:c r="B6" s="3" t="s"/>
       <x:c r="C6" s="3" t="s"/>
       <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
       <x:c r="F6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:8">
+      <x:c r="G6" s="3" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s"/>
       <x:c r="B7" s="3" t="s"/>
       <x:c r="C7" s="3" t="s"/>
@@ -486,19 +492,19 @@
       <x:c r="E7" s="3" t="s"/>
       <x:c r="F7" s="3" t="s"/>
       <x:c r="G7" s="3" t="s"/>
-      <x:c r="H7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:8">
+    </x:row>
+    <x:row r="8" spans="1:10">
       <x:c r="A8" s="3" t="s"/>
       <x:c r="B8" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
       <x:c r="E8" s="3" t="s"/>
       <x:c r="F8" s="3" t="s"/>
       <x:c r="G8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:8">
+      <x:c r="H8" s="3" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:10">
       <x:c r="A9" s="3" t="s"/>
       <x:c r="B9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s"/>
@@ -506,14 +512,11 @@
       <x:c r="G9" s="3" t="s"/>
       <x:c r="H9" s="3" t="s"/>
     </x:row>
-    <x:row r="10" spans="1:8">
+    <x:row r="10" spans="1:10">
       <x:c r="A10" s="3" t="s"/>
       <x:c r="B10" s="3" t="s"/>
       <x:c r="D10" s="3" t="s"/>
       <x:c r="E10" s="3" t="s"/>
-      <x:c r="F10" s="3" t="s"/>
-      <x:c r="G10" s="3" t="s"/>
-      <x:c r="H10" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -411,112 +411,109 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="3" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="3" t="s"/>
-      <x:c r="B1" s="3" t="s"/>
-      <x:c r="C1" s="3" t="s"/>
-      <x:c r="D1" s="3" t="s"/>
-      <x:c r="E1" s="3" t="s"/>
-      <x:c r="F1" s="3" t="s"/>
-      <x:c r="G1" s="3" t="s"/>
-      <x:c r="H1" s="3" t="s"/>
-      <x:c r="I1" s="3" t="s"/>
+      <x:c r="A1" s="0" t="s"/>
+      <x:c r="B1" s="0" t="s"/>
+      <x:c r="C1" s="0" t="s"/>
+      <x:c r="D1" s="0" t="s"/>
+      <x:c r="E1" s="0" t="s"/>
+      <x:c r="F1" s="0" t="s"/>
+      <x:c r="G1" s="0" t="s"/>
+      <x:c r="H1" s="0" t="s"/>
+      <x:c r="I1" s="0" t="s"/>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="3" t="s"/>
+      <x:c r="A2" s="0" t="s"/>
       <x:c r="B2" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s"/>
       <x:c r="D2" s="3" t="s"/>
-      <x:c r="E2" s="3" t="s"/>
+      <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G2" s="3" t="s"/>
-      <x:c r="H2" s="3" t="s"/>
-      <x:c r="I2" s="3" t="s"/>
+      <x:c r="G2" s="0" t="s"/>
+      <x:c r="H2" s="0" t="s"/>
+      <x:c r="I2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="3" t="s"/>
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="3" t="s"/>
-      <x:c r="D3" s="3" t="s"/>
-      <x:c r="E3" s="3" t="s"/>
-      <x:c r="F3" s="3" t="s"/>
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s"/>
       <x:c r="G3" s="3" t="s"/>
-      <x:c r="H3" s="3" t="s"/>
-      <x:c r="I3" s="3" t="s"/>
+      <x:c r="H3" s="0" t="s"/>
+      <x:c r="I3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="3" t="s"/>
+      <x:c r="A4" s="0" t="s"/>
       <x:c r="B4" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
-      <x:c r="E4" s="3" t="s"/>
-      <x:c r="F4" s="3" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s"/>
       <x:c r="G4" s="3" t="s"/>
-      <x:c r="H4" s="3" t="s"/>
-      <x:c r="I4" s="3" t="s"/>
+      <x:c r="H4" s="0" t="s"/>
+      <x:c r="I4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="3" t="s"/>
+      <x:c r="A5" s="0" t="s"/>
       <x:c r="B5" s="3" t="s"/>
       <x:c r="C5" s="3" t="s"/>
       <x:c r="D5" s="3" t="s"/>
-      <x:c r="E5" s="3" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="3" t="s"/>
-      <x:c r="G5" s="3" t="s"/>
+      <x:c r="G5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="A6" s="3" t="s"/>
+      <x:c r="A6" s="0" t="s"/>
       <x:c r="B6" s="3" t="s"/>
       <x:c r="C6" s="3" t="s"/>
       <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="3" t="s"/>
-      <x:c r="G6" s="3" t="s"/>
+      <x:c r="G6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="A7" s="3" t="s"/>
-      <x:c r="B7" s="3" t="s"/>
-      <x:c r="C7" s="3" t="s"/>
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="3" t="s"/>
-      <x:c r="G7" s="3" t="s"/>
+      <x:c r="G7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="3" t="s"/>
+      <x:c r="A8" s="0" t="s"/>
       <x:c r="B8" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s"/>
-      <x:c r="F8" s="3" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s"/>
       <x:c r="G8" s="3" t="s"/>
-      <x:c r="H8" s="3" t="s"/>
+      <x:c r="H8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="3" t="s"/>
-      <x:c r="B9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s"/>
-      <x:c r="F9" s="3" t="s"/>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="3" t="s"/>
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s"/>
+      <x:c r="G9" s="0" t="s"/>
+      <x:c r="H9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="3" t="s"/>
-      <x:c r="B10" s="3" t="s"/>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s"/>
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -71,7 +71,16 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="9">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -413,107 +422,107 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:10">
-      <x:c r="A1" s="0" t="s"/>
-      <x:c r="B1" s="0" t="s"/>
-      <x:c r="C1" s="0" t="s"/>
-      <x:c r="D1" s="0" t="s"/>
-      <x:c r="E1" s="0" t="s"/>
-      <x:c r="F1" s="0" t="s"/>
-      <x:c r="G1" s="0" t="s"/>
-      <x:c r="H1" s="0" t="s"/>
-      <x:c r="I1" s="0" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:10">
-      <x:c r="A2" s="0" t="s"/>
+    <x:row r="1" spans="1:9">
+      <x:c r="A1" s="3" t="s"/>
+      <x:c r="B1" s="3" t="s"/>
+      <x:c r="C1" s="3" t="s"/>
+      <x:c r="D1" s="3" t="s"/>
+      <x:c r="E1" s="3" t="s"/>
+      <x:c r="F1" s="3" t="s"/>
+      <x:c r="G1" s="3" t="s"/>
+      <x:c r="H1" s="3" t="s"/>
+      <x:c r="I1" s="3" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="3" t="s"/>
       <x:c r="B2" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s"/>
       <x:c r="D2" s="3" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
+      <x:c r="E2" s="3" t="s"/>
       <x:c r="F2" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
-      <x:c r="I2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="A3" s="0" t="s"/>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
+      <x:c r="G2" s="3" t="s"/>
+      <x:c r="H2" s="3" t="s"/>
+      <x:c r="I2" s="3" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="3" t="s"/>
+      <x:c r="B3" s="3" t="s"/>
+      <x:c r="C3" s="3" t="s"/>
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="E3" s="3" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
       <x:c r="G3" s="3" t="s"/>
-      <x:c r="H3" s="0" t="s"/>
-      <x:c r="I3" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="A4" s="0" t="s"/>
+      <x:c r="H3" s="3" t="s"/>
+      <x:c r="I3" s="3" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="3" t="s"/>
       <x:c r="B4" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
       <x:c r="G4" s="3" t="s"/>
-      <x:c r="H4" s="0" t="s"/>
-      <x:c r="I4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" s="0" t="s"/>
+      <x:c r="H4" s="3" t="s"/>
+      <x:c r="I4" s="3" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="3" t="s"/>
       <x:c r="B5" s="3" t="s"/>
       <x:c r="C5" s="3" t="s"/>
       <x:c r="D5" s="3" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
+      <x:c r="E5" s="3" t="s"/>
       <x:c r="F5" s="3" t="s"/>
-      <x:c r="G5" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="0" t="s"/>
+      <x:c r="G5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="3" t="s"/>
       <x:c r="B6" s="3" t="s"/>
       <x:c r="C6" s="3" t="s"/>
       <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
+      <x:c r="E6" s="3" t="s"/>
       <x:c r="F6" s="3" t="s"/>
-      <x:c r="G6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
+      <x:c r="G6" s="3" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="3" t="s"/>
+      <x:c r="B7" s="3" t="s"/>
+      <x:c r="C7" s="3" t="s"/>
       <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
+      <x:c r="E7" s="3" t="s"/>
       <x:c r="F7" s="3" t="s"/>
-      <x:c r="G7" s="0" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s"/>
+      <x:c r="G7" s="3" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="3" t="s"/>
       <x:c r="B8" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
-      <x:c r="F8" s="0" t="s"/>
+      <x:c r="E8" s="3" t="s"/>
+      <x:c r="F8" s="3" t="s"/>
       <x:c r="G8" s="3" t="s"/>
-      <x:c r="H8" s="0" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
-      <x:c r="F9" s="0" t="s"/>
-      <x:c r="G9" s="0" t="s"/>
-      <x:c r="H9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
+      <x:c r="H8" s="3" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:9">
+      <x:c r="A9" s="3" t="s"/>
+      <x:c r="B9" s="3" t="s"/>
+      <x:c r="E9" s="3" t="s"/>
+      <x:c r="F9" s="3" t="s"/>
+      <x:c r="G9" s="3" t="s"/>
+      <x:c r="H9" s="3" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:9">
+      <x:c r="A10" s="3" t="s"/>
+      <x:c r="B10" s="3" t="s"/>
+      <x:c r="D10" s="3" t="s"/>
+      <x:c r="E10" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -71,13 +71,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="9">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -100,7 +94,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -111,14 +105,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -423,106 +409,97 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:9">
-      <x:c r="A1" s="3" t="s"/>
-      <x:c r="B1" s="3" t="s"/>
-      <x:c r="C1" s="3" t="s"/>
-      <x:c r="D1" s="3" t="s"/>
-      <x:c r="E1" s="3" t="s"/>
-      <x:c r="F1" s="3" t="s"/>
-      <x:c r="G1" s="3" t="s"/>
-      <x:c r="H1" s="3" t="s"/>
-      <x:c r="I1" s="3" t="s"/>
+      <x:c r="F1" s="0" t="s"/>
+      <x:c r="G1" s="0" t="s"/>
+      <x:c r="H1" s="0" t="s"/>
+      <x:c r="I1" s="0" t="s"/>
     </x:row>
     <x:row r="2" spans="1:9">
-      <x:c r="A2" s="3" t="s"/>
-      <x:c r="B2" s="3" t="s">
+      <x:c r="A2" s="0" t="s"/>
+      <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="3" t="s"/>
-      <x:c r="D2" s="3" t="s"/>
-      <x:c r="E2" s="3" t="s"/>
-      <x:c r="F2" s="4" t="s">
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="F2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G2" s="3" t="s"/>
-      <x:c r="H2" s="3" t="s"/>
-      <x:c r="I2" s="3" t="s"/>
+      <x:c r="G2" s="0" t="s"/>
+      <x:c r="H2" s="0" t="s"/>
+      <x:c r="I2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="3" t="s"/>
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="C3" s="3" t="s"/>
-      <x:c r="D3" s="3" t="s"/>
-      <x:c r="E3" s="3" t="s"/>
-      <x:c r="F3" s="3" t="s"/>
-      <x:c r="G3" s="3" t="s"/>
-      <x:c r="H3" s="3" t="s"/>
-      <x:c r="I3" s="3" t="s"/>
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s"/>
+      <x:c r="G3" s="0" t="s"/>
+      <x:c r="H3" s="0" t="s"/>
+      <x:c r="I3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="A4" s="3" t="s"/>
+      <x:c r="A4" s="0" t="s"/>
       <x:c r="B4" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C4" s="3" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
-      <x:c r="E4" s="3" t="s"/>
-      <x:c r="F4" s="3" t="s"/>
-      <x:c r="G4" s="3" t="s"/>
-      <x:c r="H4" s="3" t="s"/>
-      <x:c r="I4" s="3" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s"/>
+      <x:c r="G4" s="0" t="s"/>
+      <x:c r="H4" s="0" t="s"/>
+      <x:c r="I4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="3" t="s"/>
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="C5" s="3" t="s"/>
-      <x:c r="D5" s="3" t="s"/>
-      <x:c r="E5" s="3" t="s"/>
-      <x:c r="F5" s="3" t="s"/>
-      <x:c r="G5" s="3" t="s"/>
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s"/>
+      <x:c r="G5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="3" t="s"/>
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="3" t="s"/>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
-      <x:c r="G6" s="3" t="s"/>
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s"/>
+      <x:c r="G6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="3" t="s"/>
-      <x:c r="B7" s="3" t="s"/>
-      <x:c r="C7" s="3" t="s"/>
-      <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
-      <x:c r="F7" s="3" t="s"/>
-      <x:c r="G7" s="3" t="s"/>
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s"/>
+      <x:c r="G7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="3" t="s"/>
-      <x:c r="B8" s="3" t="s">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s"/>
-      <x:c r="F8" s="3" t="s"/>
-      <x:c r="G8" s="3" t="s"/>
-      <x:c r="H8" s="3" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s"/>
+      <x:c r="G8" s="0" t="s"/>
+      <x:c r="H8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="3" t="s"/>
-      <x:c r="B9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s"/>
-      <x:c r="F9" s="3" t="s"/>
-      <x:c r="G9" s="3" t="s"/>
-      <x:c r="H9" s="3" t="s"/>
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="G9" s="0" t="s"/>
+      <x:c r="H9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="3" t="s"/>
-      <x:c r="B10" s="3" t="s"/>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s"/>
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -505,14 +505,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -434,7 +434,6 @@
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
       <x:c r="G3" s="0" t="s"/>
       <x:c r="H3" s="0" t="s"/>
       <x:c r="I3" s="0" t="s"/>
@@ -445,7 +444,6 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
       <x:c r="G4" s="0" t="s"/>
       <x:c r="H4" s="0" t="s"/>
       <x:c r="I4" s="0" t="s"/>
@@ -457,7 +455,6 @@
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s"/>
-      <x:c r="G5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="0" t="s"/>
@@ -466,7 +463,6 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s"/>
-      <x:c r="G6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s"/>
@@ -475,7 +471,6 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s"/>
-      <x:c r="G7" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s"/>
@@ -484,7 +479,6 @@
       </x:c>
       <x:c r="C8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
-      <x:c r="F8" s="0" t="s"/>
       <x:c r="G8" s="0" t="s"/>
       <x:c r="H8" s="0" t="s"/>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -35,7 +35,21 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="3">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -409,6 +423,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:9">
+      <x:c r="B1" s="0" t="s"/>
       <x:c r="F1" s="0" t="s"/>
       <x:c r="G1" s="0" t="s"/>
       <x:c r="H1" s="0" t="s"/>
@@ -486,6 +501,7 @@
       <x:c r="A9" s="0" t="s"/>
       <x:c r="B9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s"/>
       <x:c r="G9" s="0" t="s"/>
       <x:c r="H9" s="0" t="s"/>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -418,7 +418,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -423,7 +423,6 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:9">
-      <x:c r="B1" s="0" t="s"/>
       <x:c r="F1" s="0" t="s"/>
       <x:c r="G1" s="0" t="s"/>
       <x:c r="H1" s="0" t="s"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -86,38 +86,38 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="7">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/MergeMoves.xlsx
@@ -422,94 +422,31 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
-      <x:c r="F1" s="0" t="s"/>
-      <x:c r="G1" s="0" t="s"/>
-      <x:c r="H1" s="0" t="s"/>
-      <x:c r="I1" s="0" t="s"/>
-    </x:row>
-    <x:row r="2" spans="1:9">
-      <x:c r="A2" s="0" t="s"/>
+    <x:row r="1" spans="1:6"/>
+    <x:row r="2" spans="1:6">
       <x:c r="B2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
       <x:c r="F2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s"/>
-      <x:c r="H2" s="0" t="s"/>
-      <x:c r="I2" s="0" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="A3" s="0" t="s"/>
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="C3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
-      <x:c r="G3" s="0" t="s"/>
-      <x:c r="H3" s="0" t="s"/>
-      <x:c r="I3" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:9">
-      <x:c r="A4" s="0" t="s"/>
+    <x:row r="3" spans="1:6"/>
+    <x:row r="4" spans="1:6">
       <x:c r="B4" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s"/>
-      <x:c r="G4" s="0" t="s"/>
-      <x:c r="H4" s="0" t="s"/>
-      <x:c r="I4" s="0" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:9">
-      <x:c r="A5" s="0" t="s"/>
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="C5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:9">
-      <x:c r="A6" s="0" t="s"/>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:9">
-      <x:c r="A7" s="0" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="0" t="s"/>
-      <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
-      <x:c r="F7" s="0" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:9">
-      <x:c r="A8" s="0" t="s"/>
+    <x:row r="5" spans="1:6"/>
+    <x:row r="6" spans="1:6"/>
+    <x:row r="7" spans="1:6"/>
+    <x:row r="8" spans="1:6">
       <x:c r="B8" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
-      <x:c r="G8" s="0" t="s"/>
-      <x:c r="H8" s="0" t="s"/>
     </x:row>
-    <x:row r="9" spans="1:9">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
-      <x:c r="F9" s="0" t="s"/>
-      <x:c r="G9" s="0" t="s"/>
-      <x:c r="H9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:9">
-      <x:c r="A10" s="0" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s"/>
-    </x:row>
+    <x:row r="9" spans="1:6"/>
+    <x:row r="10" spans="1:6"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
